--- a/examples/db_schema_analzyer/Report.xlsx
+++ b/examples/db_schema_analzyer/Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\Analzyer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P_Apps\examples\db_schema_analzyer\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>
@@ -83,13 +83,13 @@
     <t>object</t>
   </si>
   <si>
-    <t>literal, numeral, void</t>
+    <t>numeral, string, void</t>
   </si>
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>literal</t>
+    <t>string</t>
   </si>
   <si>
     <t>line</t>
@@ -308,7 +308,7 @@
     <t>Downloaded Example.JSON</t>
   </si>
   <si>
-    <t>array, literal</t>
+    <t>array, string</t>
   </si>
   <si>
     <t>fileName</t>
@@ -320,7 +320,7 @@
     <t>sheets</t>
   </si>
   <si>
-    <t>array, literal, numeral</t>
+    <t>array, numeral, string</t>
   </si>
   <si>
     <t>name</t>
@@ -1256,7 +1256,7 @@
     <t>listen</t>
   </si>
   <si>
-    <t>date, literal, numeral</t>
+    <t>date, numeral, string</t>
   </si>
   <si>
     <t>spatial_unit</t>
@@ -2005,7 +2005,7 @@
     <col customWidth="1" width="12.7109375" min="3" max="3"/>
     <col customWidth="1" width="6.7109375" min="4" max="4"/>
     <col customWidth="1" width="15.7109375" min="5" max="5"/>
-    <col customWidth="1" width="27.7109375" min="6" max="6"/>
+    <col customWidth="1" width="26.7109375" min="6" max="6"/>
     <col customWidth="1" width="11.7109375" min="7" max="7"/>
     <col customWidth="1" width="18.7109375" min="8" max="8"/>
     <col customWidth="1" width="40.7109375" min="9" max="9"/>
@@ -19380,7 +19380,7 @@
     <col customWidth="1" width="12.7109375" min="3" max="3"/>
     <col customWidth="1" width="6.7109375" min="4" max="4"/>
     <col customWidth="1" width="15.7109375" min="5" max="5"/>
-    <col customWidth="1" width="27.7109375" min="6" max="6"/>
+    <col customWidth="1" width="26.7109375" min="6" max="6"/>
     <col customWidth="1" width="16.7109375" min="7" max="7"/>
     <col customWidth="1" width="18.7109375" min="8" max="8"/>
     <col customWidth="1" width="40.7109375" min="9" max="9"/>
